--- a/data/core_publications.xlsx
+++ b/data/core_publications.xlsx
@@ -8916,12 +8916,12 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>pub.1032125823</t>
+          <t>pub.1009389919</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>05/02866 Energy consumption and GDP in developing countries: a cointegrated panel analysis</t>
+          <t>The relationship between energy consumption, energy prices and economic growth: time series evidence from Asian developing countries</t>
         </is>
       </c>
     </row>
@@ -8938,12 +8938,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>pub.1009389919</t>
+          <t>pub.1009749897</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>The relationship between energy consumption, energy prices and economic growth: time series evidence from Asian developing countries</t>
+          <t>Energy consumption, economic growth, and carbon emissions: Challenges faced by an EU candidate member</t>
         </is>
       </c>
     </row>
@@ -8960,12 +8960,12 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>pub.1009749897</t>
+          <t>pub.1053441851</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Energy consumption, economic growth, and carbon emissions: Challenges faced by an EU candidate member</t>
+          <t>Energy consumption and GDP: causality relationship in G-7 countries and emerging markets</t>
         </is>
       </c>
     </row>
@@ -8982,12 +8982,12 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>pub.1053441851</t>
+          <t>pub.1006882307</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Energy consumption and GDP: causality relationship in G-7 countries and emerging markets</t>
+          <t>Energy consumption, income, and carbon emissions in the United States</t>
         </is>
       </c>
     </row>
@@ -9004,12 +9004,12 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>pub.1006882307</t>
+          <t>pub.1032217726</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Energy consumption, income, and carbon emissions in the United States</t>
+          <t>Energy consumption, carbon emissions, and economic growth in China</t>
         </is>
       </c>
     </row>
@@ -9026,12 +9026,12 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>pub.1032217726</t>
+          <t>pub.1042544661</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Energy consumption, carbon emissions, and economic growth in China</t>
+          <t>An econometric study of CO2 emissions, energy consumption, income and foreign trade in Turkey</t>
         </is>
       </c>
     </row>
@@ -9048,12 +9048,12 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>pub.1042544661</t>
+          <t>pub.1123961798</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>An econometric study of CO2 emissions, energy consumption, income and foreign trade in Turkey</t>
+          <t>Citation-based systematic literature review of energy-growth nexus: An overview of the field and content analysis of the top 50 influential papers</t>
         </is>
       </c>
     </row>
@@ -9070,12 +9070,12 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>pub.1123961798</t>
+          <t>pub.1048730269</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Citation-based systematic literature review of energy-growth nexus: An overview of the field and content analysis of the top 50 influential papers</t>
+          <t>Energy consumption and GDP in developing countries: A cointegrated panel analysis</t>
         </is>
       </c>
     </row>

--- a/data/core_publications.xlsx
+++ b/data/core_publications.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1116">
   <si>
-    <t>Group</t>
+    <t>Topic</t>
   </si>
   <si>
     <t>Survey</t>
   </si>
   <si>
-    <t>Core Publications</t>
+    <t>Pub_id</t>
   </si>
   <si>
     <t>Title</t>
@@ -3379,7 +3379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>

--- a/data/core_publications.xlsx
+++ b/data/core_publications.xlsx
@@ -5650,7 +5650,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5694,7 +5694,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5804,7 +5804,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5826,7 +5826,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5870,7 +5870,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5936,7 +5936,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5980,7 +5980,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6002,7 +6002,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6046,7 +6046,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6068,7 +6068,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6090,7 +6090,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6134,7 +6134,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6178,7 +6178,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6332,7 +6332,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6376,7 +6376,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6398,7 +6398,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6442,7 +6442,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6486,7 +6486,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6530,7 +6530,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6596,7 +6596,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6640,7 +6640,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6662,7 +6662,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6706,7 +6706,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6728,7 +6728,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Sustainable Biofuel</t>
+          <t>Sustainable Biofuel Economy</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6750,7 +6750,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6772,7 +6772,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6794,7 +6794,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6816,7 +6816,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6860,7 +6860,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6882,7 +6882,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6904,7 +6904,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6926,7 +6926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6970,7 +6970,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7014,7 +7014,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7036,7 +7036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7058,7 +7058,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7102,7 +7102,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7124,7 +7124,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7146,7 +7146,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7168,7 +7168,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7190,7 +7190,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7212,7 +7212,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7234,7 +7234,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7256,7 +7256,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7322,7 +7322,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7344,7 +7344,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7366,7 +7366,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7388,7 +7388,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7410,7 +7410,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7454,7 +7454,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7498,7 +7498,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7520,7 +7520,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7542,7 +7542,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7564,7 +7564,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7586,7 +7586,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7630,7 +7630,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7652,7 +7652,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7674,7 +7674,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7696,7 +7696,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7762,7 +7762,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7806,7 +7806,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7828,7 +7828,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Nanoparticles</t>
+          <t>Nanopharmaceuticals OR Nanonutraceuticals</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">

--- a/data/core_publications.xlsx
+++ b/data/core_publications.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D815"/>
+  <dimension ref="A1:D809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15538,12 +15538,12 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>pub.1043355881</t>
+          <t>pub.1094505139</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Challenges in Collaborative Modeling: A Literature Review</t>
+          <t>CDOSim: Simulating Cloud Deployment Options for Software Migration Support</t>
         </is>
       </c>
     </row>
@@ -15560,12 +15560,12 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>pub.1036043271</t>
+          <t>pub.1094808840</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>An analysis of data sets used to train and validate cost prediction systems</t>
+          <t>An Extensible Architecture for Detecting Violations of a Cloud Environment&amp;#x27;s Constraints During Legacy Software System Migration</t>
         </is>
       </c>
     </row>
@@ -15582,12 +15582,12 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>pub.1012689387</t>
+          <t>pub.1119463839</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>A survey and taxonomy of approaches for mining software repositories in the context of software evolution</t>
+          <t>CloudGenius: Decision Support for Web Server Cloud Migration</t>
         </is>
       </c>
     </row>
@@ -15604,12 +15604,12 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>pub.1019803350</t>
+          <t>pub.1093694541</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>A Quantitative Assessment of Requirements Engineering Publications – 1963–2006</t>
+          <t>Cloudstep: A Step-by-Step Decision Process to Support Legacy Application Migration to the Cloud</t>
         </is>
       </c>
     </row>
@@ -15626,12 +15626,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>pub.1095674802</t>
+          <t>pub.1094203398</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>A Conceptual Model of ICT-Supported Unified Process of International Outsourcing of Software Production</t>
+          <t>Software Engineering Challenges for Migration to the Service Cloud Paradigm</t>
         </is>
       </c>
     </row>
@@ -15648,12 +15648,12 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>pub.1052578288</t>
+          <t>pub.1093422882</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Quality, productivity and economic benefits of software reuse: a review of industrial studies</t>
+          <t>Cloud Migration: A Case Study of Migrating an Enterprise IT System to IaaS</t>
         </is>
       </c>
     </row>
@@ -15670,12 +15670,12 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>pub.1031618271</t>
+          <t>pub.1026275219</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Mobile Systems Development: A Literature Review</t>
+          <t>How to adapt applications for the Cloud environment</t>
         </is>
       </c>
     </row>
@@ -15692,12 +15692,12 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>pub.1062959392</t>
+          <t>pub.1094635108</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>MEASUREMENT IN SOFTWARE ENGINEERING: FROM THE ROADMAP TO THE CROSSROADS</t>
+          <t>Migration of Multi-tier Applications to Infrastructure-as-a-Service Clouds: An Investigation Using Kernel-based Virtual Machines</t>
         </is>
       </c>
     </row>
@@ -15714,12 +15714,12 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>pub.1014654869</t>
+          <t>pub.1095459235</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>In search of `architectural knowledge&amp;#x27;</t>
+          <t>Legacy Application Migration to the Cloud: Practicability and Methodology</t>
         </is>
       </c>
     </row>
@@ -15736,12 +15736,12 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>pub.1061420973</t>
+          <t>pub.1095784692</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Improving Evidence about Software Technologies: A Look at Model-Based Testing</t>
+          <t>Migration to Cloud as Real Option Investment decision under uncertainty</t>
         </is>
       </c>
     </row>
@@ -15758,12 +15758,12 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>pub.1012774582</t>
+          <t>pub.1093590373</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>How Does a Measurement Programme Evolve in Software Organizations?</t>
+          <t>Migrating Service-Oriented System to Cloud Computing: An Experience Report</t>
         </is>
       </c>
     </row>
@@ -15780,12 +15780,12 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>pub.1093218858</t>
+          <t>pub.1015329134</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>Experimental Context Classification: Incentives and Experience of Subjects</t>
+          <t>Cloud adoption</t>
         </is>
       </c>
     </row>
@@ -15802,12 +15802,12 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>pub.1061788449</t>
+          <t>pub.1095092589</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Evidence-based guidelines for assessment of software development cost uncertainty</t>
+          <t>Workload Migration into Clouds - Challenges, Experiences, Opportunities</t>
         </is>
       </c>
     </row>
@@ -15824,12 +15824,12 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>pub.1095289700</t>
+          <t>pub.1031146575</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Effectiveness of Requirements Elicitation Techniques: Empirical Results Derived from a Systematic Review</t>
+          <t>Application migration to cloud</t>
         </is>
       </c>
     </row>
@@ -15846,12 +15846,12 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>pub.1033313185</t>
+          <t>pub.1029470968</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Developing Open Source Software: A Community-Based Analysis of Research</t>
+          <t>A tale of migration to cloud computing for sharing experiences and observations</t>
         </is>
       </c>
     </row>
@@ -15868,12 +15868,12 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>pub.1023990088</t>
+          <t>pub.1094056660</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Data sets and data quality in software engineering</t>
+          <t>Size Estimation of Cloud Migration Projects with Cloud Migration Point (CMP)</t>
         </is>
       </c>
     </row>
@@ -15890,12 +15890,12 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>pub.1008918541</t>
+          <t>pub.1095101569</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>A new research agenda for tool integration</t>
+          <t>A Practical Architecture of Cloudification of Legacy Applications</t>
         </is>
       </c>
     </row>
@@ -15912,12 +15912,12 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>pub.1030075621</t>
+          <t>pub.1017004215</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>Where Is the Proof? - A Review of Experiences from Applying MDE in Industry</t>
+          <t>Automatic conformance checking for migrating software systems to cloud infrastructures and platforms</t>
         </is>
       </c>
     </row>
@@ -15934,12 +15934,12 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>pub.1004881437</t>
+          <t>pub.1027646047</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>The type of evidence produced by empirical software engineers</t>
+          <t>The Cloud Adoption Toolkit: supporting cloud adoption decisions in the enterprise</t>
         </is>
       </c>
     </row>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>pub.1061788671</t>
+          <t>pub.1063158434</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>The Role of Deliberate Artificial Design Elements in Software Engineering Experiments</t>
+          <t>Cloudward bound</t>
         </is>
       </c>
     </row>
@@ -15978,144 +15978,144 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>pub.1049407720</t>
+          <t>pub.1095280257</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Techniques for developing more accessible web applications</t>
+          <t>Search-Based Genetic Optimization for Deployment and Reconfiguration of Software in the Cloud</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>pub.1011427038</t>
+          <t>pub.1095624517</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Tailoring and Introduction of the Rational Unified Process</t>
+          <t>Evaluating the impact of object-oriented design on software quality</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>pub.1043650304</t>
+          <t>pub.1061154182</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>A systematic review of effect size in software engineering experiments</t>
+          <t>A validation of object-oriented design metrics as quality indicators</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>pub.1017554634</t>
+          <t>pub.1061154197</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>Systematic review of organizational motivations for adopting CMM-based SPI</t>
+          <t>Predicting fault-prone software modules in telephone switches</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>pub.1000653945</t>
+          <t>pub.1094566044</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>Status of Empirical Research in Software Engineering</t>
+          <t>Validation of the coupling dependency metric as a predictor of run-time failures and maintenance measures</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>pub.1094400008</t>
+          <t>pub.1094661240</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>Software Project Economics: A Roadmap</t>
+          <t>Predicting fault-prone classes with design measures in object-oriented systems</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Cloud Migration</t>
+          <t>Software Fault Prediction Metrics</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>pub.1061541753</t>
+          <t>pub.1038168456</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>pub.1013552649</t>
+          <t>pub.1093776808</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>Software process improvement in small and medium software enterprises: a systematic review</t>
+          <t>A comprehensive empirical validation of design measures for object-oriented systems</t>
         </is>
       </c>
     </row>
@@ -16132,12 +16132,12 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>pub.1095624517</t>
+          <t>pub.1094303700</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>Evaluating the impact of object-oriented design on software quality</t>
+          <t>Code churn: a measure for estimating the impact of code change</t>
         </is>
       </c>
     </row>
@@ -16154,12 +16154,12 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>pub.1061154182</t>
+          <t>pub.1094349395</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>A validation of object-oriented design metrics as quality indicators</t>
+          <t>Prediction of fault-proneness at early phase in object-oriented development</t>
         </is>
       </c>
     </row>
@@ -16176,12 +16176,12 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>pub.1061154197</t>
+          <t>pub.1093506486</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>Predicting fault-prone software modules in telephone switches</t>
+          <t>An empirical study on object-oriented metrics</t>
         </is>
       </c>
     </row>
@@ -16198,12 +16198,12 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>pub.1094566044</t>
+          <t>pub.1061154618</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>Validation of the coupling dependency metric as a predictor of run-time failures and maintenance measures</t>
+          <t>Predicting fault incidence using software change history</t>
         </is>
       </c>
     </row>
@@ -16220,12 +16220,12 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>pub.1094661240</t>
+          <t>pub.1095336786</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>Predicting fault-prone classes with design measures in object-oriented systems</t>
+          <t>An application of fuzzy clustering to software quality prediction</t>
         </is>
       </c>
     </row>
@@ -16242,12 +16242,12 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>pub.1093776808</t>
+          <t>pub.1094791278</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>A comprehensive empirical validation of design measures for object-oriented systems</t>
+          <t>Using product, process, and execution metrics to predict fault-prone software modules with classification trees</t>
         </is>
       </c>
     </row>
@@ -16264,12 +16264,12 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>pub.1094303700</t>
+          <t>pub.1093396093</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>Code churn: a measure for estimating the impact of code change</t>
+          <t>A study on fault-proneness detection of object-oriented systems</t>
         </is>
       </c>
     </row>
@@ -16286,12 +16286,12 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>pub.1094349395</t>
+          <t>pub.1061154750</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>Prediction of fault-proneness at early phase in object-oriented development</t>
+          <t>The confounding effect of class size on the validity of object-oriented metrics</t>
         </is>
       </c>
     </row>
@@ -16308,12 +16308,12 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>pub.1093506486</t>
+          <t>pub.1061788213</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>An empirical study on object-oriented metrics</t>
+          <t>Assessing the applicability of fault-proneness models across object-oriented software projects</t>
         </is>
       </c>
     </row>
@@ -16330,12 +16330,12 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>pub.1061154618</t>
+          <t>pub.1094902607</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>Predicting fault incidence using software change history</t>
+          <t>Metrics That Matter</t>
         </is>
       </c>
     </row>
@@ -16352,12 +16352,12 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>pub.1095336786</t>
+          <t>pub.1093519125</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>An application of fuzzy clustering to software quality prediction</t>
+          <t>Predicting fault-proneness using OO metrics. An industrial case study</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>pub.1094791278</t>
+          <t>pub.1094933957</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>Using product, process, and execution metrics to predict fault-prone software modules with classification trees</t>
+          <t>How Good is Your Blind Spot Sampling Policy?</t>
         </is>
       </c>
     </row>
@@ -16396,12 +16396,12 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>pub.1093396093</t>
+          <t>pub.1094572706</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>A study on fault-proneness detection of object-oriented systems</t>
+          <t>Finding Predictors of Field Defects for Open Source Software Systems in Commonly Available Data Sources: a Case Study of OpenBSD</t>
         </is>
       </c>
     </row>
@@ -16418,12 +16418,12 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>pub.1061154750</t>
+          <t>pub.1061788438</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>The confounding effect of class size on the validity of object-oriented metrics</t>
+          <t>Empirical validation of object-oriented metrics on open source software for fault prediction</t>
         </is>
       </c>
     </row>
@@ -16440,12 +16440,12 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>pub.1061788213</t>
+          <t>pub.1005717752</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>Assessing the applicability of fault-proneness models across object-oriented software projects</t>
+          <t>Use of relative code churn measures to predict system defect density</t>
         </is>
       </c>
     </row>
@@ -16462,12 +16462,12 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>pub.1094902607</t>
+          <t>pub.1095448393</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>Metrics That Matter</t>
+          <t>Can Cohesion Predict Fault Density?</t>
         </is>
       </c>
     </row>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>pub.1093519125</t>
+          <t>pub.1061788513</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>Predicting fault-proneness using OO metrics. An industrial case study</t>
+          <t>Empirical Analysis of Object-Oriented Design Metrics for Predicting High and Low Severity Faults</t>
         </is>
       </c>
     </row>
@@ -16506,12 +16506,12 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>pub.1094933957</t>
+          <t>pub.1093266454</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>How Good is Your Blind Spot Sampling Policy?</t>
+          <t>Using Historical In-Process and Product Metrics for Early Estimation of Software Failures</t>
         </is>
       </c>
     </row>
@@ -16528,12 +16528,12 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>pub.1094572706</t>
+          <t>pub.1061788591</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>Finding Predictors of Field Defects for Open Source Software Systems in Commonly Available Data Sources: a Case Study of OpenBSD</t>
+          <t>Empirical Validation of Three Software Metrics Suites to Predict Fault-Proneness of Object-Oriented Classes Developed Using Highly Iterative or Agile Software Development Processes</t>
         </is>
       </c>
     </row>
@@ -16550,12 +16550,12 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>pub.1061788438</t>
+          <t>pub.1095418072</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>Empirical validation of object-oriented metrics on open source software for fault prediction</t>
+          <t>Predicting Defects for Eclipse</t>
         </is>
       </c>
     </row>
@@ -16572,12 +16572,12 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>pub.1005717752</t>
+          <t>pub.1061788629</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>Use of relative code churn measures to predict system defect density</t>
+          <t>Empirical Analysis of Software Fault Content and Fault Proneness Using Bayesian Methods</t>
         </is>
       </c>
     </row>
@@ -16594,12 +16594,12 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>pub.1095448393</t>
+          <t>pub.1093292255</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>Can Cohesion Predict Fault Density?</t>
+          <t>Using Software Dependencies and Churn Metrics to Predict Field Failures: An Empirical Case Study</t>
         </is>
       </c>
     </row>
@@ -16616,12 +16616,12 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>pub.1061788513</t>
+          <t>pub.1095355101</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>Empirical Analysis of Object-Oriented Design Metrics for Predicting High and Low Severity Faults</t>
+          <t>Fault Prediction using Early Lifecycle Data</t>
         </is>
       </c>
     </row>
@@ -16638,12 +16638,12 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>pub.1093266454</t>
+          <t>pub.1061788604</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>Using Historical In-Process and Product Metrics for Early Estimation of Software Failures</t>
+          <t>Data Mining Static Code Attributes to Learn Defect Predictors</t>
         </is>
       </c>
     </row>
@@ -16660,12 +16660,12 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>pub.1061788591</t>
+          <t>pub.1061788656</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>Empirical Validation of Three Software Metrics Suites to Predict Fault-Proneness of Object-Oriented Classes Developed Using Highly Iterative or Agile Software Development Processes</t>
+          <t>Using the Conceptual Cohesion of Classes for Fault Prediction in Object-Oriented Systems</t>
         </is>
       </c>
     </row>
@@ -16682,12 +16682,12 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>pub.1095418072</t>
+          <t>pub.1094238526</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>Predicting Defects for Eclipse</t>
+          <t>Defect Prediction Using Combined Product and Project Metrics a Case Study from the Open Source “Apache” MyFaces Project Family</t>
         </is>
       </c>
     </row>
@@ -16704,12 +16704,12 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>pub.1061788629</t>
+          <t>pub.1031519727</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>Empirical Analysis of Software Fault Content and Fault Proneness Using Bayesian Methods</t>
+          <t>A comparative analysis of the efficiency of change metrics and static code attributes for defect prediction</t>
         </is>
       </c>
     </row>
@@ -16726,12 +16726,12 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>pub.1093292255</t>
+          <t>pub.1048522318</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>Using Software Dependencies and Churn Metrics to Predict Field Failures: An Empirical Case Study</t>
+          <t>The influence of organizational structure on software quality</t>
         </is>
       </c>
     </row>
@@ -16748,12 +16748,12 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>pub.1095355101</t>
+          <t>pub.1022710599</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>Fault Prediction using Early Lifecycle Data</t>
+          <t>Predicting defects using network analysis on dependency graphs</t>
         </is>
       </c>
     </row>
@@ -16770,12 +16770,12 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>pub.1061788604</t>
+          <t>pub.1095559062</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>Data Mining Static Code Attributes to Learn Defect Predictors</t>
+          <t>Evolution and Search Based Metrics to Improve Defects Prediction</t>
         </is>
       </c>
     </row>
@@ -16792,12 +16792,12 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>pub.1061788656</t>
+          <t>pub.1095317546</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>Using the Conceptual Cohesion of Classes for Fault Prediction in Object-Oriented Systems</t>
+          <t>Predicting faults using the complexity of code changes</t>
         </is>
       </c>
     </row>
@@ -16814,12 +16814,12 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>pub.1094238526</t>
+          <t>pub.1095132962</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>Defect Prediction Using Combined Product and Project Metrics a Case Study from the Open Source “Apache” MyFaces Project Family</t>
+          <t>Predicting Defects in SAP Java Code: An Experience Report</t>
         </is>
       </c>
     </row>
@@ -16836,12 +16836,12 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>pub.1031519727</t>
+          <t>pub.1093362345</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>A comparative analysis of the efficiency of change metrics and static code attributes for defect prediction</t>
+          <t>Merits of using repository metrics in defect prediction for open source projects</t>
         </is>
       </c>
     </row>
@@ -16858,12 +16858,12 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>pub.1048522318</t>
+          <t>pub.1094242278</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>The influence of organizational structure on software quality</t>
+          <t>An Investigation of the Relationships between Lines of Code and Defects</t>
         </is>
       </c>
     </row>
@@ -16880,12 +16880,12 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>pub.1022710599</t>
+          <t>pub.1094738621</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>Predicting defects using network analysis on dependency graphs</t>
+          <t>Ineffectiveness of Use of Software Science Metrics as Predictors of Defects in Object Oriented Software</t>
         </is>
       </c>
     </row>
@@ -16902,12 +16902,12 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>pub.1095559062</t>
+          <t>pub.1093856281</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>Evolution and Search Based Metrics to Improve Defects Prediction</t>
+          <t>On the Relationship between Change Coupling and Software Defects</t>
         </is>
       </c>
     </row>
@@ -16924,12 +16924,12 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>pub.1095317546</t>
+          <t>pub.1095496474</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>Predicting faults using the complexity of code changes</t>
+          <t>An Extensive Comparison of Bug Prediction Approaches</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>pub.1095132962</t>
+          <t>pub.1094464848</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>Predicting Defects in SAP Java Code: An Experience Report</t>
+          <t>Assessing UML Design Metrics for Predicting Fault-prone Classes in a Java System</t>
         </is>
       </c>
     </row>
@@ -16968,12 +16968,12 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>pub.1093362345</t>
+          <t>pub.1093508390</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>Merits of using repository metrics in defect prediction for open source projects</t>
+          <t>An Empirical Approach for Software Fault Prediction</t>
         </is>
       </c>
     </row>
@@ -16990,12 +16990,12 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>pub.1094242278</t>
+          <t>pub.1093246157</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>An Investigation of the Relationships between Lines of Code and Defects</t>
+          <t>New Conceptual Coupling and Cohesion Metrics for Object-Oriented Systems</t>
         </is>
       </c>
     </row>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>pub.1094738621</t>
+          <t>pub.1094870261</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>Ineffectiveness of Use of Software Science Metrics as Predictors of Defects in Object Oriented Software</t>
+          <t>Change Bursts as Defect Predictors</t>
         </is>
       </c>
     </row>
@@ -17034,144 +17034,120 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>pub.1093856281</t>
+          <t>pub.1093463018</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>On the Relationship between Change Coupling and Software Defects</t>
+          <t>An Empirical Study on Object-Oriented Metrics and Software Evolution in order to Reduce Testing Costs by Predicting Change-Prone Classes</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
         <is>
           <t>pub.1038168456</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>pub.1095496474</t>
-        </is>
-      </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>An Extensive Comparison of Bug Prediction Approaches</t>
+          <t>Software fault prediction metrics: A systematic literature review</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>pub.1038168456</t>
-        </is>
-      </c>
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr"/>
       <c r="C757" t="inlineStr">
         <is>
-          <t>pub.1094464848</t>
+          <t>pub.1016640320</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>Assessing UML Design Metrics for Predicting Fault-prone Classes in a Java System</t>
+          <t>Regression via Classification applied on software defect estimation</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>pub.1038168456</t>
-        </is>
-      </c>
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr"/>
       <c r="C758" t="inlineStr">
         <is>
-          <t>pub.1093508390</t>
+          <t>pub.1044795300</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>An Empirical Approach for Software Fault Prediction</t>
+          <t>Mining software repositories for comprehensible software fault prediction models</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>pub.1038168456</t>
-        </is>
-      </c>
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
       <c r="C759" t="inlineStr">
         <is>
-          <t>pub.1093246157</t>
+          <t>pub.1049597330</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>New Conceptual Coupling and Cohesion Metrics for Object-Oriented Systems</t>
+          <t>A systematic review of software fault prediction studies</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>pub.1038168456</t>
-        </is>
-      </c>
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr"/>
       <c r="C760" t="inlineStr">
         <is>
-          <t>pub.1094870261</t>
+          <t>pub.1030311613</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>Change Bursts as Defect Predictors</t>
+          <t>Applying machine learning to software fault-proneness prediction</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Metrics</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>pub.1038168456</t>
-        </is>
-      </c>
+          <t>Software Defect Prediction</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr"/>
       <c r="C761" t="inlineStr">
         <is>
-          <t>pub.1093463018</t>
+          <t>pub.1030916580</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>An Empirical Study on Object-Oriented Metrics and Software Evolution in order to Reduce Testing Costs by Predicting Change-Prone Classes</t>
+          <t>Predicting defect-prone software modules using support vector machines</t>
         </is>
       </c>
     </row>
@@ -17184,12 +17160,12 @@
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
-          <t>pub.1038168456</t>
+          <t>pub.1061798146</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>Software fault prediction metrics: A systematic literature review</t>
+          <t>Empirical Case Studies in Attribute Noise Detection</t>
         </is>
       </c>
     </row>
@@ -17202,12 +17178,12 @@
       <c r="B763" t="inlineStr"/>
       <c r="C763" t="inlineStr">
         <is>
-          <t>pub.1016640320</t>
+          <t>pub.1095749524</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>Regression via Classification applied on software defect estimation</t>
+          <t>Feature Selection with Imbalanced Data for Software Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17220,12 +17196,12 @@
       <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr">
         <is>
-          <t>pub.1044795300</t>
+          <t>pub.1040067116</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>Mining software repositories for comprehensible software fault prediction models</t>
+          <t>Investigating the effect of dataset size, metrics sets, and feature selection techniques on software fault prediction problem</t>
         </is>
       </c>
     </row>
@@ -17238,12 +17214,12 @@
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
-          <t>pub.1049597330</t>
+          <t>pub.1016659627</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>A systematic review of software fault prediction studies</t>
+          <t>On the relative value of cross-company and within-company data for defect prediction</t>
         </is>
       </c>
     </row>
@@ -17256,12 +17232,12 @@
       <c r="B766" t="inlineStr"/>
       <c r="C766" t="inlineStr">
         <is>
-          <t>pub.1030311613</t>
+          <t>pub.1032338646</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>Applying machine learning to software fault-proneness prediction</t>
+          <t>Data mining source code for locating software bugs: A case study in telecommunication industry</t>
         </is>
       </c>
     </row>
@@ -17274,12 +17250,12 @@
       <c r="B767" t="inlineStr"/>
       <c r="C767" t="inlineStr">
         <is>
-          <t>pub.1030916580</t>
+          <t>pub.1061788822</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>Predicting defect-prone software modules using support vector machines</t>
+          <t>Evolutionary Optimization of Software Quality Modeling with Multiple Repositories</t>
         </is>
       </c>
     </row>
@@ -17292,12 +17268,12 @@
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
-          <t>pub.1061798146</t>
+          <t>pub.1009020017</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>Empirical Case Studies in Attribute Noise Detection</t>
+          <t>Cost-sensitive boosting neural networks for software defect prediction</t>
         </is>
       </c>
     </row>
@@ -17310,12 +17286,12 @@
       <c r="B769" t="inlineStr"/>
       <c r="C769" t="inlineStr">
         <is>
-          <t>pub.1095749524</t>
+          <t>pub.1006992827</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>Feature Selection with Imbalanced Data for Software Defect Prediction</t>
+          <t>Defect prediction from static code features: current results, limitations, new approaches</t>
         </is>
       </c>
     </row>
@@ -17328,12 +17304,12 @@
       <c r="B770" t="inlineStr"/>
       <c r="C770" t="inlineStr">
         <is>
-          <t>pub.1040067116</t>
+          <t>pub.1029996552</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>Investigating the effect of dataset size, metrics sets, and feature selection techniques on software fault prediction problem</t>
+          <t>A systematic and comprehensive investigation of methods to build and evaluate fault prediction models</t>
         </is>
       </c>
     </row>
@@ -17346,12 +17322,12 @@
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
-          <t>pub.1016659627</t>
+          <t>pub.1093583251</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>On the relative value of cross-company and within-company data for defect prediction</t>
+          <t>A Comparative Study of Ensemble Feature Selection Techniques for Software Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17364,12 +17340,12 @@
       <c r="B772" t="inlineStr"/>
       <c r="C772" t="inlineStr">
         <is>
-          <t>pub.1032338646</t>
+          <t>pub.1061788851</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>Data mining source code for locating software bugs: A case study in telecommunication industry</t>
+          <t>A General Software Defect-Proneness Prediction Framework</t>
         </is>
       </c>
     </row>
@@ -17382,12 +17358,12 @@
       <c r="B773" t="inlineStr"/>
       <c r="C773" t="inlineStr">
         <is>
-          <t>pub.1061788822</t>
+          <t>pub.1050027319</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>Evolutionary Optimization of Software Quality Modeling with Multiple Repositories</t>
+          <t>Practical development of an Eclipse-based software fault prediction tool using Naive Bayes algorithm</t>
         </is>
       </c>
     </row>
@@ -17400,12 +17376,12 @@
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
-          <t>pub.1009020017</t>
+          <t>pub.1061795697</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>Cost-sensitive boosting neural networks for software defect prediction</t>
+          <t>Comparing Boosting and Bagging Techniques with Noisy and Imbalanced Data</t>
         </is>
       </c>
     </row>
@@ -17418,12 +17394,12 @@
       <c r="B775" t="inlineStr"/>
       <c r="C775" t="inlineStr">
         <is>
-          <t>pub.1006992827</t>
+          <t>pub.1026182535</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>Defect prediction from static code features: current results, limitations, new approaches</t>
+          <t>An industrial case study of classifier ensembles for locating software defects</t>
         </is>
       </c>
     </row>
@@ -17436,12 +17412,12 @@
       <c r="B776" t="inlineStr"/>
       <c r="C776" t="inlineStr">
         <is>
-          <t>pub.1029996552</t>
+          <t>pub.1014268670</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>A systematic and comprehensive investigation of methods to build and evaluate fault prediction models</t>
+          <t>An ant colony optimization algorithm to improve software quality prediction models: Case of class stability</t>
         </is>
       </c>
     </row>
@@ -17454,12 +17430,12 @@
       <c r="B777" t="inlineStr"/>
       <c r="C777" t="inlineStr">
         <is>
-          <t>pub.1093583251</t>
+          <t>pub.1061662354</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>A Comparative Study of Ensemble Feature Selection Techniques for Software Defect Prediction</t>
+          <t>Software Fault Prediction Using Quad Tree-Based K-Means Clustering Algorithm</t>
         </is>
       </c>
     </row>
@@ -17472,12 +17448,12 @@
       <c r="B778" t="inlineStr"/>
       <c r="C778" t="inlineStr">
         <is>
-          <t>pub.1061788851</t>
+          <t>pub.1061783611</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>A General Software Defect-Proneness Prediction Framework</t>
+          <t>Evaluating Stratification Alternatives to Improve Software Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17490,12 +17466,12 @@
       <c r="B779" t="inlineStr"/>
       <c r="C779" t="inlineStr">
         <is>
-          <t>pub.1050027319</t>
+          <t>pub.1056837147</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>Practical development of an Eclipse-based software fault prediction tool using Naive Bayes algorithm</t>
+          <t>Artificial neural network-based metric selection for software fault-prone prediction model</t>
         </is>
       </c>
     </row>
@@ -17508,12 +17484,12 @@
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr">
         <is>
-          <t>pub.1061795697</t>
+          <t>pub.1061798471</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>Comparing Boosting and Bagging Techniques with Noisy and Imbalanced Data</t>
+          <t>Using Coding-Based Ensemble Learning to Improve Software Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17526,12 +17502,12 @@
       <c r="B781" t="inlineStr"/>
       <c r="C781" t="inlineStr">
         <is>
-          <t>pub.1026182535</t>
+          <t>pub.1056837144</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>An industrial case study of classifier ensembles for locating software defects</t>
+          <t>Reflections on the NASA MDP data sets</t>
         </is>
       </c>
     </row>
@@ -17544,12 +17520,12 @@
       <c r="B782" t="inlineStr"/>
       <c r="C782" t="inlineStr">
         <is>
-          <t>pub.1014268670</t>
+          <t>pub.1041664266</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>An ant colony optimization algorithm to improve software quality prediction models: Case of class stability</t>
+          <t>Transfer learning for cross-company software defect prediction</t>
         </is>
       </c>
     </row>
@@ -17562,12 +17538,12 @@
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr">
         <is>
-          <t>pub.1061662354</t>
+          <t>pub.1027402804</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Using Quad Tree-Based K-Means Clustering Algorithm</t>
+          <t>User preferences based software defect detection algorithms selection using MCDM</t>
         </is>
       </c>
     </row>
@@ -17580,12 +17556,12 @@
       <c r="B784" t="inlineStr"/>
       <c r="C784" t="inlineStr">
         <is>
-          <t>pub.1061783611</t>
+          <t>pub.1061783588</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>Evaluating Stratification Alternatives to Improve Software Defect Prediction</t>
+          <t>Effective Software Fault Localization Using an RBF Neural Network</t>
         </is>
       </c>
     </row>
@@ -17598,12 +17574,12 @@
       <c r="B785" t="inlineStr"/>
       <c r="C785" t="inlineStr">
         <is>
-          <t>pub.1056837147</t>
+          <t>pub.1093218381</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>Artificial neural network-based metric selection for software fault-prone prediction model</t>
+          <t>Software Fault Prediction Based on Grey Neural Network</t>
         </is>
       </c>
     </row>
@@ -17616,12 +17592,12 @@
       <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr">
         <is>
-          <t>pub.1061798471</t>
+          <t>pub.1061788960</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>Using Coding-Based Ensemble Learning to Improve Software Defect Prediction</t>
+          <t>Toward Comprehensible Software Fault Prediction Models Using Bayesian Network Classifiers</t>
         </is>
       </c>
     </row>
@@ -17634,12 +17610,12 @@
       <c r="B787" t="inlineStr"/>
       <c r="C787" t="inlineStr">
         <is>
-          <t>pub.1056837144</t>
+          <t>pub.1061789009</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>Reflections on the NASA MDP data sets</t>
+          <t>Data Quality: Some Comments on the NASA Software Defect Datasets</t>
         </is>
       </c>
     </row>
@@ -17652,12 +17628,12 @@
       <c r="B788" t="inlineStr"/>
       <c r="C788" t="inlineStr">
         <is>
-          <t>pub.1041664266</t>
+          <t>pub.1061783724</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>Transfer learning for cross-company software defect prediction</t>
+          <t>Using Class Imbalance Learning for Software Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17670,12 +17646,12 @@
       <c r="B789" t="inlineStr"/>
       <c r="C789" t="inlineStr">
         <is>
-          <t>pub.1027402804</t>
+          <t>pub.1014545963</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>User preferences based software defect detection algorithms selection using MCDM</t>
+          <t>The design of polynomial function-based neural network predictors for detection of software defects</t>
         </is>
       </c>
     </row>
@@ -17688,12 +17664,12 @@
       <c r="B790" t="inlineStr"/>
       <c r="C790" t="inlineStr">
         <is>
-          <t>pub.1061783588</t>
+          <t>pub.1061789060</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>Effective Software Fault Localization Using an RBF Neural Network</t>
+          <t>Balancing Privacy and Utility in Cross-Company Defect Prediction</t>
         </is>
       </c>
     </row>
@@ -17706,12 +17682,12 @@
       <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr">
         <is>
-          <t>pub.1093218381</t>
+          <t>pub.1028857888</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>Software Fault Prediction Based on Grey Neural Network</t>
+          <t>An empirical comparison and characterization of high defect and high complexity modules</t>
         </is>
       </c>
     </row>
@@ -17724,12 +17700,12 @@
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr">
         <is>
-          <t>pub.1061788960</t>
+          <t>pub.1093454342</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>Toward Comprehensible Software Fault Prediction Models Using Bayesian Network Classifiers</t>
+          <t>Extract Rules from Software Quality Prediction Model Based on Neural Network</t>
         </is>
       </c>
     </row>
@@ -17742,12 +17718,12 @@
       <c r="B793" t="inlineStr"/>
       <c r="C793" t="inlineStr">
         <is>
-          <t>pub.1061789009</t>
+          <t>pub.1042524665</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>Data Quality: Some Comments on the NASA Software Defect Datasets</t>
+          <t>Object oriented software quality prediction using general regression neural networks</t>
         </is>
       </c>
     </row>
@@ -17760,12 +17736,12 @@
       <c r="B794" t="inlineStr"/>
       <c r="C794" t="inlineStr">
         <is>
-          <t>pub.1061783724</t>
+          <t>pub.1061788479</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>Using Class Imbalance Learning for Software Defect Prediction</t>
+          <t>Predicting the location and number of faults in large software systems</t>
         </is>
       </c>
     </row>
@@ -17778,12 +17754,12 @@
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr">
         <is>
-          <t>pub.1014545963</t>
+          <t>pub.1094284227</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>The design of polynomial function-based neural network predictors for detection of software defects</t>
+          <t>A Novel Method for Early Software Quality Prediction Based on Support Vector Machine</t>
         </is>
       </c>
     </row>
@@ -17796,12 +17772,12 @@
       <c r="B796" t="inlineStr"/>
       <c r="C796" t="inlineStr">
         <is>
-          <t>pub.1061789060</t>
+          <t>pub.1093778985</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>Balancing Privacy and Utility in Cross-Company Defect Prediction</t>
+          <t>Empirical Assessment of Machine Learning based Software Defect Prediction Techniques</t>
         </is>
       </c>
     </row>
@@ -17814,12 +17790,12 @@
       <c r="B797" t="inlineStr"/>
       <c r="C797" t="inlineStr">
         <is>
-          <t>pub.1028857888</t>
+          <t>pub.1011990728</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>An empirical comparison and characterization of high defect and high complexity modules</t>
+          <t>An investigation of the effect of module size on defect prediction using static measures</t>
         </is>
       </c>
     </row>
@@ -17832,12 +17808,12 @@
       <c r="B798" t="inlineStr"/>
       <c r="C798" t="inlineStr">
         <is>
-          <t>pub.1093454342</t>
+          <t>pub.1048561887</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>Extract Rules from Software Quality Prediction Model Based on Neural Network</t>
+          <t>Assessment of a New Three-Group Software Quality Classification Technique: An Empirical Case Study</t>
         </is>
       </c>
     </row>
@@ -17850,12 +17826,12 @@
       <c r="B799" t="inlineStr"/>
       <c r="C799" t="inlineStr">
         <is>
-          <t>pub.1042524665</t>
+          <t>pub.1061788527</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>Object oriented software quality prediction using general regression neural networks</t>
+          <t>Software defect association mining and defect correction effort prediction</t>
         </is>
       </c>
     </row>
@@ -17868,12 +17844,12 @@
       <c r="B800" t="inlineStr"/>
       <c r="C800" t="inlineStr">
         <is>
-          <t>pub.1061788479</t>
+          <t>pub.1061788513</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>Predicting the location and number of faults in large software systems</t>
+          <t>Empirical Analysis of Object-Oriented Design Metrics for Predicting High and Low Severity Faults</t>
         </is>
       </c>
     </row>
@@ -17886,12 +17862,12 @@
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="inlineStr">
         <is>
-          <t>pub.1094284227</t>
+          <t>pub.1094706654</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>A Novel Method for Early Software Quality Prediction Based on Support Vector Machine</t>
+          <t>A Unified Framework for Defect Data Analysis Using the MBR Technique</t>
         </is>
       </c>
     </row>
@@ -17904,12 +17880,12 @@
       <c r="B802" t="inlineStr"/>
       <c r="C802" t="inlineStr">
         <is>
-          <t>pub.1093778985</t>
+          <t>pub.1031601770</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>Empirical Assessment of Machine Learning based Software Defect Prediction Techniques</t>
+          <t>An empirical study of predicting software faults with case-based reasoning</t>
         </is>
       </c>
     </row>
@@ -17922,12 +17898,12 @@
       <c r="B803" t="inlineStr"/>
       <c r="C803" t="inlineStr">
         <is>
-          <t>pub.1011990728</t>
+          <t>pub.1061788604</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>An investigation of the effect of module size on defect prediction using static measures</t>
+          <t>Data Mining Static Code Attributes to Learn Defect Predictors</t>
         </is>
       </c>
     </row>
@@ -17940,12 +17916,12 @@
       <c r="B804" t="inlineStr"/>
       <c r="C804" t="inlineStr">
         <is>
-          <t>pub.1048561887</t>
+          <t>pub.1061795230</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>Assessment of a New Three-Group Software Quality Classification Technique: An Empirical Case Study</t>
+          <t>Software Quality Analysis of Unlabeled Program Modules with Semisupervised Clustering</t>
         </is>
       </c>
     </row>
@@ -17958,12 +17934,12 @@
       <c r="B805" t="inlineStr"/>
       <c r="C805" t="inlineStr">
         <is>
-          <t>pub.1061788527</t>
+          <t>pub.1095092354</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>Software defect association mining and defect correction effort prediction</t>
+          <t>A practical method for the software fault-prediction</t>
         </is>
       </c>
     </row>
@@ -17976,12 +17952,12 @@
       <c r="B806" t="inlineStr"/>
       <c r="C806" t="inlineStr">
         <is>
-          <t>pub.1061788513</t>
+          <t>pub.1053284993</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>Empirical Analysis of Object-Oriented Design Metrics for Predicting High and Low Severity Faults</t>
+          <t>Predicting software defects in varying development lifecycles using Bayesian nets</t>
         </is>
       </c>
     </row>
@@ -17994,12 +17970,12 @@
       <c r="B807" t="inlineStr"/>
       <c r="C807" t="inlineStr">
         <is>
-          <t>pub.1094706654</t>
+          <t>pub.1012487871</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>A Unified Framework for Defect Data Analysis Using the MBR Technique</t>
+          <t>Identifying and characterizing change-prone classes in two large-scale open-source products</t>
         </is>
       </c>
     </row>
@@ -18012,12 +17988,12 @@
       <c r="B808" t="inlineStr"/>
       <c r="C808" t="inlineStr">
         <is>
-          <t>pub.1031601770</t>
+          <t>pub.1061788629</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>An empirical study of predicting software faults with case-based reasoning</t>
+          <t>Empirical Analysis of Software Fault Content and Fault Proneness Using Bayesian Methods</t>
         </is>
       </c>
     </row>
@@ -18030,118 +18006,10 @@
       <c r="B809" t="inlineStr"/>
       <c r="C809" t="inlineStr">
         <is>
-          <t>pub.1061788604</t>
+          <t>pub.1061788688</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
-        <is>
-          <t>Data Mining Static Code Attributes to Learn Defect Predictors</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr"/>
-      <c r="C810" t="inlineStr">
-        <is>
-          <t>pub.1061795230</t>
-        </is>
-      </c>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>Software Quality Analysis of Unlabeled Program Modules with Semisupervised Clustering</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr"/>
-      <c r="C811" t="inlineStr">
-        <is>
-          <t>pub.1095092354</t>
-        </is>
-      </c>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>A practical method for the software fault-prediction</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr"/>
-      <c r="C812" t="inlineStr">
-        <is>
-          <t>pub.1053284993</t>
-        </is>
-      </c>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>Predicting software defects in varying development lifecycles using Bayesian nets</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr"/>
-      <c r="C813" t="inlineStr">
-        <is>
-          <t>pub.1012487871</t>
-        </is>
-      </c>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>Identifying and characterizing change-prone classes in two large-scale open-source products</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr"/>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>pub.1061788629</t>
-        </is>
-      </c>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>Empirical Analysis of Software Fault Content and Fault Proneness Using Bayesian Methods</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>Software Defect Prediction</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr"/>
-      <c r="C815" t="inlineStr">
-        <is>
-          <t>pub.1061788688</t>
-        </is>
-      </c>
-      <c r="D815" t="inlineStr">
         <is>
           <t>Benchmarking Classification Models for Software Defect Prediction: A Proposed Framework and Novel Findings</t>
         </is>
